--- a/backend/dados.xlsx
+++ b/backend/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,28 +490,96 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jonathas Santos</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Moisés</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
